--- a/Departments/FREN.xlsx
+++ b/Departments/FREN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DFC0BF7-004B-4738-9C18-E8162276DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2969DC-BD11-4E76-95A5-081D0FC11193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E01EC9C2-A7BE-4368-9182-EF77AE8ECA89}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{E01EC9C2-A7BE-4368-9182-EF77AE8ECA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -691,6 +685,12 @@
   </si>
   <si>
     <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I76"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,2089 +1064,2089 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
         <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>99</v>
-      </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
         <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
         <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>111</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
         <v>112</v>
-      </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
         <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>140</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
         <v>155</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
         <v>156</v>
-      </c>
-      <c r="E53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
         <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
         <v>166</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>169</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
         <v>172</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
         <v>175</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
         <v>178</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
         <v>186</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
         <v>189</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
         <v>192</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>193</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
         <v>194</v>
-      </c>
-      <c r="F66" t="s">
-        <v>195</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
         <v>214</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" t="s">
         <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>215</v>
-      </c>
-      <c r="H76" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/FREN.xlsx
+++ b/Departments/FREN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2969DC-BD11-4E76-95A5-081D0FC11193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E881F-784D-4F77-9FA3-45505A96CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7360" xr2:uid="{E01EC9C2-A7BE-4368-9182-EF77AE8ECA89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E01EC9C2-A7BE-4368-9182-EF77AE8ECA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="212">
   <si>
     <t>Course_Code</t>
   </si>
@@ -81,9 +81,6 @@
     <t>FRENCH</t>
   </si>
   <si>
-    <t>REQ-FREN 222. Students with B+ in FREN 221 may take FREN 222 and FREN 352 concurrently.</t>
-  </si>
-  <si>
     <t>FREN365</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>FREN245</t>
   </si>
   <si>
-    <t>REQ-FREN 245</t>
-  </si>
-  <si>
     <t>FREN407W</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>FREN 424 - Topics in French Linguistics</t>
   </si>
   <si>
-    <t>REQ- FREN 270 or 275 or LING 222, FREN 301W and at least one 300-level group A (ling.) course.</t>
-  </si>
-  <si>
     <t>FREN442</t>
   </si>
   <si>
@@ -165,12 +156,6 @@
     <t>FREN 452 - Topics in French and Francophone Cultures or Cinemas</t>
   </si>
   <si>
-    <t>FREN245,FREN275,FREN301W,FREN331,FREN332,FREN333,FREN334,FREN340,FREN341,FREN344,FREN345</t>
-  </si>
-  <si>
-    <t>REQ-  FREN 230 or 240 or 245, FREN 270 or 275 or LING 222, FREN 301W, and at least one 300-level group A (ling.) or group B (lit.) course.</t>
-  </si>
-  <si>
     <t>FREN476</t>
   </si>
   <si>
@@ -264,12 +249,6 @@
     <t>FREN 102 - Elementary French II</t>
   </si>
   <si>
-    <t>FREN105</t>
-  </si>
-  <si>
-    <t>FREN 105 - STT - The French Urban Experience</t>
-  </si>
-  <si>
     <t>FREN202</t>
   </si>
   <si>
@@ -282,21 +261,12 @@
     <t>FREN 101 - Elementary French I</t>
   </si>
   <si>
-    <t>FREN106</t>
-  </si>
-  <si>
-    <t>FREN 106 - STT-Introduction to Francophone Comics in Translation</t>
-  </si>
-  <si>
     <t>FREN198</t>
   </si>
   <si>
     <t>FREN 198 - French for Reading Knowledge I</t>
   </si>
   <si>
-    <t>REQ-May not be taken by students with French 12 or with FREN 151 or 210 or higher (or their equivalents).</t>
-  </si>
-  <si>
     <t>FREN201</t>
   </si>
   <si>
@@ -306,9 +276,6 @@
     <t>FREN102,FRENX12</t>
   </si>
   <si>
-    <t>REQ- Grade 12 French or FREN 102 or FREN 122 or consult with the French advisor.  Students with credit for FREN 210 or FREN 211 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>FREN204</t>
   </si>
   <si>
@@ -321,27 +288,18 @@
     <t>FREN202,FRENX12</t>
   </si>
   <si>
-    <t>REQ-Grade 12 French Immersion or FREN 202 with a minimum grade of C+ or permission of the Department of French.  Students with credit for FREN 240 or 230 cannot take FREN 245 for further credit Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>FREN275</t>
   </si>
   <si>
     <t>FREN 275 - French Inside Out: Introduction to French Language, Culture, and Society</t>
   </si>
   <si>
-    <t>FRENX12</t>
-  </si>
-  <si>
     <t>FREN300</t>
   </si>
   <si>
     <t>FREN 300 - Francophone Arts, Cultures and Traditions</t>
   </si>
   <si>
-    <t>REQ- Grade 12 French Immersion or FREN 202 with min, grade C+ or permission of the Dept. of French. Students with native/near-native proficiency are not allowed to take this course and must contact instructor for evaluation/exemption prior to enrolment.</t>
-  </si>
-  <si>
     <t>FREN301W</t>
   </si>
   <si>
@@ -351,18 +309,12 @@
     <t>FALX99,FREN202,FRENX12</t>
   </si>
   <si>
-    <t>REQ- Grade 12 French Immersion or FREN 202 or FREN 221 or permission of the Department of French.   Writing.</t>
-  </si>
-  <si>
     <t>FREN302</t>
   </si>
   <si>
     <t>FREN 302 - Critical Thinking &amp; Public Speaking on Contemporary Francophone Cultural, Social &amp; Political Issues</t>
   </si>
   <si>
-    <t>REQ-FREN 202 with a minimum grade of C-.</t>
-  </si>
-  <si>
     <t>FREN321</t>
   </si>
   <si>
@@ -441,9 +393,6 @@
     <t>FREN 304 - Advanced French Grammar</t>
   </si>
   <si>
-    <t>REQ-FREN 222 (or equivalent based on placement test).</t>
-  </si>
-  <si>
     <t>FREN307</t>
   </si>
   <si>
@@ -486,18 +435,12 @@
     <t>FREN 340 - Survey of Quebecois Literature</t>
   </si>
   <si>
-    <t>REQ- FREN 245 or 240.  Students with credit for FREN 230 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>FREN344</t>
   </si>
   <si>
     <t>FREN 344 - Survey of French Literature after 1789</t>
   </si>
   <si>
-    <t>REQ- FREN 245 or 230 or 240.</t>
-  </si>
-  <si>
     <t>FREN345</t>
   </si>
   <si>
@@ -546,9 +489,6 @@
     <t>FREN 425 - Topics in the Varieties of French</t>
   </si>
   <si>
-    <t>REQ-  FREN 270 or 275 or LING 222, FREN 301W, and at least one 300-level group A (ling.) course.  Students with credit for FREN 421 and/or 422 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>FREN430</t>
   </si>
   <si>
@@ -564,9 +504,6 @@
     <t>FREN 440 - Topics in French Genre Studies</t>
   </si>
   <si>
-    <t>REQ- FREN 230 or 240 or 245, FREN 301W, and at least one 300-level group B (lit.) course.  Students with credit for FREN 472, 474 or 475 must seek permission of the Department to take this course for further credit.</t>
-  </si>
-  <si>
     <t>FREN441</t>
   </si>
   <si>
@@ -597,9 +534,6 @@
     <t>FREN 455 - Special Topics in Indigenous Literatures in French and Translation</t>
   </si>
   <si>
-    <t>REQ: FREN 230 or 240 or 245, FREN 301W, and at least one 300-level group B (lit.) course.</t>
-  </si>
-  <si>
     <t>FREN465</t>
   </si>
   <si>
@@ -691,6 +625,54 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ- Grade 12 French or FREN 102 or FREN 122 or permission of the Department of French.  Students with credit for FREN 210 may not take this course for further credit. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>Prerequisite: FREN 201 or FREN 210 or permission of the Department of French.  Students with credit for FREN 211 may not take this course for further credit. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>REQ-Grade 12 French Immersion or FREN 202 or FREN 221 or permission of the Department of French.</t>
+  </si>
+  <si>
+    <t>REQ-Grade 12 French Immersion or FREN 202 or FREN 221 or permission of the Department of French. Writing.</t>
+  </si>
+  <si>
+    <t>FREN275,FREN301W</t>
+  </si>
+  <si>
+    <t>REQ- FREN 245 and FREN 301W.</t>
+  </si>
+  <si>
+    <t>REQ-FREN 245 and FREN 301W.</t>
+  </si>
+  <si>
+    <t>FREN351</t>
+  </si>
+  <si>
+    <t>FREN 351 - Introduction to Francophone Caribbean Literature</t>
+  </si>
+  <si>
+    <t>REQ-FREN 245, FREN 301W.</t>
+  </si>
+  <si>
+    <t>REQ-FREN 275 and FREN 301W and at least one 300-level FREN linguistics course.</t>
+  </si>
+  <si>
+    <t>REQ- FREN 275 and FREN 301W and at least one 300-level FREN linguistics course.  Students with credit for FREN 421 and/or 422 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-FREN 245 and FREN 301W and at least one 300-level FREN literature course.  Students with credit for FREN 472, 474 or 475 must seek permission of the department to take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-FREN 245 and FREN 301W and at least one 300-level FREN literature course.</t>
+  </si>
+  <si>
+    <t>FREN891</t>
+  </si>
+  <si>
+    <t>FREN 891 - Directed Readings in French Literature and/or Linguistics</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BE6351-0095-4AF2-AD76-9D756E997A2F}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1081,16 +1063,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1099,18 +1081,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1119,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1132,14 +1111,11 @@
       </c>
       <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1148,10 +1124,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1161,14 +1137,11 @@
       </c>
       <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1177,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1190,14 +1163,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1206,10 +1176,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1221,12 +1191,12 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1235,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1250,12 +1220,12 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1264,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1279,12 +1249,12 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1293,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1310,7 +1280,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1319,10 +1289,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1332,14 +1302,11 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1348,10 +1315,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1361,14 +1328,11 @@
       </c>
       <c r="H11" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1377,10 +1341,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1390,14 +1354,11 @@
       </c>
       <c r="H12" t="s">
         <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1406,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1419,11 +1380,14 @@
       </c>
       <c r="H13" t="s">
         <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1432,10 +1396,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1449,7 +1413,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1458,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1471,11 +1435,14 @@
       </c>
       <c r="H15" t="s">
         <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1484,10 +1451,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1501,7 +1468,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1510,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1523,11 +1490,14 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1536,24 +1506,27 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1562,24 +1535,27 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1588,33 +1564,36 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1623,44 +1602,44 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1669,10 +1648,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1686,7 +1665,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1695,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1712,7 +1691,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1721,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1738,7 +1717,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1747,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1760,11 +1739,14 @@
       </c>
       <c r="H26" t="s">
         <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1773,10 +1755,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1790,7 +1772,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1799,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1812,14 +1794,11 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1828,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1843,12 +1822,12 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1857,10 +1836,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1870,11 +1849,14 @@
       </c>
       <c r="H30" t="s">
         <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1883,10 +1865,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1898,12 +1880,12 @@
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1912,10 +1894,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1925,11 +1907,14 @@
       </c>
       <c r="H32" t="s">
         <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1938,10 +1923,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1953,12 +1938,12 @@
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1967,10 +1952,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1982,12 +1967,12 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1996,10 +1981,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -2011,12 +1996,12 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2025,27 +2010,24 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2054,10 +2036,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2069,12 +2051,12 @@
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2083,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2096,11 +2078,14 @@
       </c>
       <c r="H38" t="s">
         <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2109,10 +2094,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2122,11 +2107,14 @@
       </c>
       <c r="H39" t="s">
         <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2135,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2148,11 +2136,14 @@
       </c>
       <c r="H40" t="s">
         <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2161,10 +2152,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2174,11 +2165,14 @@
       </c>
       <c r="H41" t="s">
         <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2187,10 +2181,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2202,12 +2196,12 @@
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2216,10 +2210,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -2231,12 +2225,12 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2245,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2260,12 +2254,12 @@
         <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2274,10 +2268,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -2289,12 +2283,12 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2303,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2318,12 +2312,12 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2332,13 +2326,13 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -2347,12 +2341,12 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2361,13 +2355,13 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2376,12 +2370,12 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2390,10 +2384,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2416,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2433,7 +2427,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2442,10 +2436,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -2455,14 +2449,11 @@
       </c>
       <c r="H51" t="s">
         <v>13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2471,10 +2462,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -2486,12 +2477,12 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2500,10 +2491,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2515,12 +2506,12 @@
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2529,10 +2520,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2544,12 +2535,12 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2558,24 +2549,27 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2584,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2597,14 +2591,11 @@
       </c>
       <c r="H56" t="s">
         <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2613,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2628,12 +2619,12 @@
         <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2642,10 +2633,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2655,14 +2646,11 @@
       </c>
       <c r="H58" t="s">
         <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2671,10 +2659,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2684,14 +2672,11 @@
       </c>
       <c r="H59" t="s">
         <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2700,10 +2685,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -2713,9 +2698,6 @@
       </c>
       <c r="H60" t="s">
         <v>13</v>
-      </c>
-      <c r="I60" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2732,7 +2714,7 @@
         <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2742,26 +2724,23 @@
       </c>
       <c r="H61" t="s">
         <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
         <v>179</v>
       </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
-      </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2771,14 +2750,11 @@
       </c>
       <c r="H62" t="s">
         <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2787,7 +2763,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2804,7 +2780,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2813,10 +2789,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2826,14 +2802,11 @@
       </c>
       <c r="H64" t="s">
         <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2842,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2855,14 +2828,11 @@
       </c>
       <c r="H65" t="s">
         <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2871,27 +2841,24 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2900,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2917,7 +2884,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2926,7 +2893,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2943,7 +2910,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2952,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2969,7 +2936,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2978,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2995,7 +2962,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3004,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -3021,7 +2988,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3030,7 +2997,7 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -3047,7 +3014,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3056,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -3073,7 +3040,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3082,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -3099,16 +3066,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -3117,24 +3084,24 @@
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -3143,10 +3110,13 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>215</v>
+        <v>66</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
